--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim_Italy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E1605-2741-429C-A88C-2B0B2D50F8AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA936FD8-8A24-403D-825A-D98D69F5D86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="20400" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IT" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Filename</t>
   </si>
@@ -39,9 +39,6 @@
     <t>it_2016_std.txt</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>it_2019_std.txt</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>Policy for 2011</t>
   </si>
   <si>
@@ -129,29 +123,16 @@
     <t>Policy for 2019</t>
   </si>
   <si>
-    <t>Policy for 2020</t>
-  </si>
-  <si>
     <t>Policy for 2020 onwards</t>
   </si>
   <si>
-    <t>it_2019_std - Copy.txt</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>it_2011_std - Copy.txt</t>
-  </si>
-  <si>
-    <t>it_2011_std - Copy (2).txt</t>
+    <t>Policy_System_Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,9 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,17 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK11"/>
+  <dimension ref="A1:AML11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="1025" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="1026" width="8.7109375" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,117 +500,150 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
